--- a/Table/Datas/SkillData.xlsx
+++ b/Table/Datas/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9AECF5-B2F8-410A-B5E4-03A9D00BA865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54811780-D96E-4E4B-B7C7-771F37715375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22755" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -58,7 +58,30 @@
     <t>CollisionType</t>
   </si>
   <si>
-    <t>Capsule</t>
+    <t>!Field</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MuzzleName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muzzle_01</t>
+  </si>
+  <si>
+    <t>RayTrace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
   </si>
 </sst>
 </file>
@@ -145,7 +168,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -428,19 +451,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,10 +476,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -465,10 +493,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,10 +510,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -493,21 +527,44 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>1001</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
+        <v>25000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B7" s="3">
         <v>100</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="3">
         <v>50</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Datas/SkillData.xlsx
+++ b/Table/Datas/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54811780-D96E-4E4B-B7C7-771F37715375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B182D-5D52-44CF-A465-AC44235FDDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22755" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22410" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>Sphere</t>
+  </si>
+  <si>
+    <t>Muzzle_03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -454,7 +458,7 @@
   <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -561,7 +565,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>

--- a/Table/Datas/SkillData.xlsx
+++ b/Table/Datas/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B182D-5D52-44CF-A465-AC44235FDDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86748197-C7C0-4D33-BEF6-0A8D116B20B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22410" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23250" yWindow="3615" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -86,6 +86,14 @@
   <si>
     <t>Muzzle_03</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillSpeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -455,21 +463,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,13 +489,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,13 +509,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -514,13 +529,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -531,13 +549,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1001</v>
       </c>
@@ -547,27 +568,33 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1002</v>
       </c>
       <c r="B7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="3">
         <v>100</v>
       </c>
-      <c r="C7" s="3">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>600</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Table/Datas/SkillData.xlsx
+++ b/Table/Datas/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86748197-C7C0-4D33-BEF6-0A8D116B20B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A49D4BB-220C-4C09-85D3-0D654F35E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23250" yWindow="3615" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>skillSpeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillCoolTime</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,11 +478,11 @@
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,13 +496,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -512,13 +519,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -532,13 +542,16 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -552,13 +565,16 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1001</v>
       </c>
@@ -571,14 +587,17 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1002</v>
       </c>
@@ -591,10 +610,13 @@
       <c r="D7" s="3">
         <v>600</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Table/Datas/SkillData.xlsx
+++ b/Table/Datas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A49D4BB-220C-4C09-85D3-0D654F35E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8EF2AA-7DC2-479F-8854-00C9F2C8856A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23250" yWindow="3615" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24225" yWindow="2970" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
   <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Table/Datas/SkillData.xlsx
+++ b/Table/Datas/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8EF2AA-7DC2-479F-8854-00C9F2C8856A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A528B4-0F94-4525-BA5D-A51DC1FA0594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24225" yWindow="2970" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26475" yWindow="1875" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -98,6 +98,10 @@
   <si>
     <t>skillCoolTime</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDamage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -467,22 +471,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,13 +504,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,102 +530,143 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1001</v>
       </c>
       <c r="B6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
         <v>25000</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1002</v>
       </c>
       <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
         <v>1000</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>100</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>600</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3">
+        <v>25000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Datas/SkillData.xlsx
+++ b/Table/Datas/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A528B4-0F94-4525-BA5D-A51DC1FA0594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FDB2B6-09DF-4420-9E90-FA1F6C7C4F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26475" yWindow="1875" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="2325" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -625,7 +625,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D7" s="3">
         <v>100</v>
@@ -648,7 +648,7 @@
         <v>1003</v>
       </c>
       <c r="B8" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>25000</v>
